--- a/Code/Results/Cases/Case_3_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025673428090251</v>
+        <v>1.047605037959895</v>
       </c>
       <c r="D2">
-        <v>1.043636809560456</v>
+        <v>1.054620021756721</v>
       </c>
       <c r="E2">
-        <v>1.039119016414679</v>
+        <v>1.055423923710415</v>
       </c>
       <c r="F2">
-        <v>1.051133707651632</v>
+        <v>1.067056793130225</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060802609677342</v>
+        <v>1.049329951504624</v>
       </c>
       <c r="J2">
-        <v>1.047112458871388</v>
+        <v>1.052653217580459</v>
       </c>
       <c r="K2">
-        <v>1.054519931616193</v>
+        <v>1.05736273107179</v>
       </c>
       <c r="L2">
-        <v>1.050058990523603</v>
+        <v>1.058164420647572</v>
       </c>
       <c r="M2">
-        <v>1.061923830384738</v>
+        <v>1.069765679598073</v>
       </c>
       <c r="N2">
-        <v>1.048599478668463</v>
+        <v>1.054148105890435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029653751824217</v>
+        <v>1.048453455319179</v>
       </c>
       <c r="D3">
-        <v>1.04664205030812</v>
+        <v>1.055281909053358</v>
       </c>
       <c r="E3">
-        <v>1.042379333712698</v>
+        <v>1.056165507218695</v>
       </c>
       <c r="F3">
-        <v>1.054615051407566</v>
+        <v>1.067848162409601</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062172606701287</v>
+        <v>1.049566141559956</v>
       </c>
       <c r="J3">
-        <v>1.049367419849062</v>
+        <v>1.053150672347866</v>
       </c>
       <c r="K3">
-        <v>1.056710991707828</v>
+        <v>1.057838284587375</v>
       </c>
       <c r="L3">
-        <v>1.052497225047452</v>
+        <v>1.058719625999357</v>
       </c>
       <c r="M3">
-        <v>1.064593744941969</v>
+        <v>1.070372821304469</v>
       </c>
       <c r="N3">
-        <v>1.050857641949373</v>
+        <v>1.05464626710067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032182538597176</v>
+        <v>1.049003089843431</v>
       </c>
       <c r="D4">
-        <v>1.048553999064982</v>
+        <v>1.055710737526487</v>
       </c>
       <c r="E4">
-        <v>1.04445600718035</v>
+        <v>1.056646291962639</v>
       </c>
       <c r="F4">
-        <v>1.05683196428465</v>
+        <v>1.068361177332577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063033795000808</v>
+        <v>1.049718015016554</v>
       </c>
       <c r="J4">
-        <v>1.050797361334749</v>
+        <v>1.053472528810654</v>
       </c>
       <c r="K4">
-        <v>1.058099715586955</v>
+        <v>1.058145856886312</v>
       </c>
       <c r="L4">
-        <v>1.054045935700152</v>
+        <v>1.059079141626038</v>
       </c>
       <c r="M4">
-        <v>1.066289651484607</v>
+        <v>1.070765967523251</v>
       </c>
       <c r="N4">
-        <v>1.052289614115987</v>
+        <v>1.054968580636554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033234791058343</v>
+        <v>1.049234310538335</v>
       </c>
       <c r="D5">
-        <v>1.049350177213745</v>
+        <v>1.055891145229193</v>
       </c>
       <c r="E5">
-        <v>1.045321374728294</v>
+        <v>1.056848634776689</v>
       </c>
       <c r="F5">
-        <v>1.057755641291704</v>
+        <v>1.068577073310085</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063389902720702</v>
+        <v>1.049781632586371</v>
       </c>
       <c r="J5">
-        <v>1.051391702502044</v>
+        <v>1.053607828753695</v>
       </c>
       <c r="K5">
-        <v>1.058676751600797</v>
+        <v>1.058275124783592</v>
       </c>
       <c r="L5">
-        <v>1.054690254724163</v>
+        <v>1.059230342918948</v>
       </c>
       <c r="M5">
-        <v>1.066995216905615</v>
+        <v>1.070931312783512</v>
       </c>
       <c r="N5">
-        <v>1.052884799315911</v>
+        <v>1.055104072721033</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033410842339207</v>
+        <v>1.049273142511926</v>
       </c>
       <c r="D6">
-        <v>1.049483419000406</v>
+        <v>1.055921443941963</v>
       </c>
       <c r="E6">
-        <v>1.045466230644241</v>
+        <v>1.056882621924788</v>
       </c>
       <c r="F6">
-        <v>1.05791025018752</v>
+        <v>1.06861333630183</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063449350056474</v>
+        <v>1.049792300742414</v>
       </c>
       <c r="J6">
-        <v>1.051491100883855</v>
+        <v>1.05363054567175</v>
       </c>
       <c r="K6">
-        <v>1.058773245463388</v>
+        <v>1.058296827311455</v>
       </c>
       <c r="L6">
-        <v>1.054798047510517</v>
+        <v>1.059255733811063</v>
       </c>
       <c r="M6">
-        <v>1.067113256451703</v>
+        <v>1.070959078837886</v>
       </c>
       <c r="N6">
-        <v>1.052984338854825</v>
+        <v>1.055126821899717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032196641033654</v>
+        <v>1.049006178821335</v>
       </c>
       <c r="D7">
-        <v>1.048564667246819</v>
+        <v>1.055713147641536</v>
       </c>
       <c r="E7">
-        <v>1.044467600090959</v>
+        <v>1.05664899481158</v>
       </c>
       <c r="F7">
-        <v>1.056844338848442</v>
+        <v>1.06836406126555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063038576498885</v>
+        <v>1.049718865982564</v>
       </c>
       <c r="J7">
-        <v>1.050805329464765</v>
+        <v>1.053474336730229</v>
       </c>
       <c r="K7">
-        <v>1.058107452406319</v>
+        <v>1.05814758431146</v>
       </c>
       <c r="L7">
-        <v>1.054054571444984</v>
+        <v>1.059081161747579</v>
       </c>
       <c r="M7">
-        <v>1.066299108080636</v>
+        <v>1.0707681766151</v>
       </c>
       <c r="N7">
-        <v>1.052297593561661</v>
+        <v>1.054970391123582</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027028487563569</v>
+        <v>1.047891628609269</v>
       </c>
       <c r="D8">
-        <v>1.044659332677523</v>
+        <v>1.054843596117842</v>
       </c>
       <c r="E8">
-        <v>1.040227822194207</v>
+        <v>1.055674351503391</v>
       </c>
       <c r="F8">
-        <v>1.052317797076521</v>
+        <v>1.067324042994726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061270916633463</v>
+        <v>1.049409970743357</v>
       </c>
       <c r="J8">
-        <v>1.04788068205179</v>
+        <v>1.052821340171554</v>
       </c>
       <c r="K8">
-        <v>1.055266526906749</v>
+        <v>1.057523475327247</v>
       </c>
       <c r="L8">
-        <v>1.05088911751345</v>
+        <v>1.058352000042691</v>
       </c>
       <c r="M8">
-        <v>1.062832826799543</v>
+        <v>1.069970806005905</v>
       </c>
       <c r="N8">
-        <v>1.049368792813898</v>
+        <v>1.054316467234893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017547371098617</v>
+        <v>1.045932715347003</v>
       </c>
       <c r="D9">
-        <v>1.03751777207369</v>
+        <v>1.053315575179142</v>
       </c>
       <c r="E9">
-        <v>1.032493614089244</v>
+        <v>1.053964116325521</v>
       </c>
       <c r="F9">
-        <v>1.044056131107648</v>
+        <v>1.06549873176675</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057956760052761</v>
+        <v>1.048858363755912</v>
       </c>
       <c r="J9">
-        <v>1.042495347895162</v>
+        <v>1.05167050529167</v>
       </c>
       <c r="K9">
-        <v>1.050030124592977</v>
+        <v>1.056422683024865</v>
       </c>
       <c r="L9">
-        <v>1.045080619715322</v>
+        <v>1.057069185307022</v>
       </c>
       <c r="M9">
-        <v>1.056472695796806</v>
+        <v>1.068567991215311</v>
       </c>
       <c r="N9">
-        <v>1.043975810865061</v>
+        <v>1.053163998037478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01095130853856</v>
+        <v>1.044630280501516</v>
       </c>
       <c r="D10">
-        <v>1.032567547531844</v>
+        <v>1.052299853516218</v>
       </c>
       <c r="E10">
-        <v>1.027144876841853</v>
+        <v>1.052828920286111</v>
       </c>
       <c r="F10">
-        <v>1.038339613131273</v>
+        <v>1.064286907266578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055605045934822</v>
+        <v>1.048485772422544</v>
       </c>
       <c r="J10">
-        <v>1.038737065091327</v>
+        <v>1.050903245632558</v>
       </c>
       <c r="K10">
-        <v>1.046372670163675</v>
+        <v>1.055688207941997</v>
       </c>
       <c r="L10">
-        <v>1.041040728673802</v>
+        <v>1.056215449350748</v>
       </c>
       <c r="M10">
-        <v>1.0520494993582</v>
+        <v>1.067634393812666</v>
       </c>
       <c r="N10">
-        <v>1.040212190868563</v>
+        <v>1.052395648781643</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008024173238416</v>
+        <v>1.044067164935121</v>
       </c>
       <c r="D11">
-        <v>1.03037573697985</v>
+        <v>1.051860759536423</v>
       </c>
       <c r="E11">
-        <v>1.024779416264007</v>
+        <v>1.05233856829752</v>
       </c>
       <c r="F11">
-        <v>1.035810773381309</v>
+        <v>1.063763396705775</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054551008709955</v>
+        <v>1.048323295811278</v>
       </c>
       <c r="J11">
-        <v>1.037066905701393</v>
+        <v>1.050571021735996</v>
       </c>
       <c r="K11">
-        <v>1.044746679615877</v>
+        <v>1.055370043619179</v>
       </c>
       <c r="L11">
-        <v>1.03924868473777</v>
+        <v>1.055846140406962</v>
       </c>
       <c r="M11">
-        <v>1.05008753883023</v>
+        <v>1.067230538757094</v>
       </c>
       <c r="N11">
-        <v>1.038539659660726</v>
+        <v>1.052062953089042</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006925723384475</v>
+        <v>1.043858127742896</v>
       </c>
       <c r="D12">
-        <v>1.029554028487563</v>
+        <v>1.051697770538872</v>
       </c>
       <c r="E12">
-        <v>1.02389301723203</v>
+        <v>1.05215661126317</v>
       </c>
       <c r="F12">
-        <v>1.034863041022745</v>
+        <v>1.06356912652011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054153945019178</v>
+        <v>1.048262774021272</v>
       </c>
       <c r="J12">
-        <v>1.036439839091685</v>
+        <v>1.050447621016955</v>
       </c>
       <c r="K12">
-        <v>1.044136108971633</v>
+        <v>1.055251844795637</v>
       </c>
       <c r="L12">
-        <v>1.038576347332929</v>
+        <v>1.055709018861907</v>
       </c>
       <c r="M12">
-        <v>1.049351471652882</v>
+        <v>1.067080590573692</v>
       </c>
       <c r="N12">
-        <v>1.037911702544506</v>
+        <v>1.051939377126825</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007161859200408</v>
+        <v>1.043902961065254</v>
       </c>
       <c r="D13">
-        <v>1.029730635610657</v>
+        <v>1.051732727222048</v>
       </c>
       <c r="E13">
-        <v>1.024083509676936</v>
+        <v>1.052195633419194</v>
       </c>
       <c r="F13">
-        <v>1.035066719401837</v>
+        <v>1.063610789732493</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054239370552859</v>
+        <v>1.04827576386352</v>
       </c>
       <c r="J13">
-        <v>1.036574654399697</v>
+        <v>1.050474090776816</v>
       </c>
       <c r="K13">
-        <v>1.044267381559512</v>
+        <v>1.055277199656448</v>
       </c>
       <c r="L13">
-        <v>1.038720873354389</v>
+        <v>1.05573842932974</v>
       </c>
       <c r="M13">
-        <v>1.049509696144984</v>
+        <v>1.067112752155514</v>
       </c>
       <c r="N13">
-        <v>1.03804670930572</v>
+        <v>1.051965884476782</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007933606215459</v>
+        <v>1.044049883214148</v>
       </c>
       <c r="D14">
-        <v>1.030307970637097</v>
+        <v>1.051847284559188</v>
       </c>
       <c r="E14">
-        <v>1.024706306591155</v>
+        <v>1.052323523958025</v>
       </c>
       <c r="F14">
-        <v>1.035732607236376</v>
+        <v>1.063747334487</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054518301539251</v>
+        <v>1.048318296539427</v>
       </c>
       <c r="J14">
-        <v>1.037015210343732</v>
+        <v>1.05056082134495</v>
       </c>
       <c r="K14">
-        <v>1.044696345911052</v>
+        <v>1.055360273635561</v>
       </c>
       <c r="L14">
-        <v>1.039193247262217</v>
+        <v>1.055834804741323</v>
       </c>
       <c r="M14">
-        <v>1.050026846117539</v>
+        <v>1.067218142727992</v>
       </c>
       <c r="N14">
-        <v>1.038487890889727</v>
+        <v>1.05205273821227</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008407607447777</v>
+        <v>1.044140423944094</v>
       </c>
       <c r="D15">
-        <v>1.03066267277067</v>
+        <v>1.05191788175456</v>
       </c>
       <c r="E15">
-        <v>1.025088993447273</v>
+        <v>1.05240234565183</v>
       </c>
       <c r="F15">
-        <v>1.036141757264187</v>
+        <v>1.063831488784879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054689419509377</v>
+        <v>1.048344479725137</v>
       </c>
       <c r="J15">
-        <v>1.037285756054187</v>
+        <v>1.050614259219242</v>
       </c>
       <c r="K15">
-        <v>1.044959761951879</v>
+        <v>1.05541145585495</v>
       </c>
       <c r="L15">
-        <v>1.039483397241924</v>
+        <v>1.05589419231039</v>
       </c>
       <c r="M15">
-        <v>1.050344501887885</v>
+        <v>1.06728308554555</v>
       </c>
       <c r="N15">
-        <v>1.038758820806123</v>
+        <v>1.052106251974474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.011144033779246</v>
+        <v>1.044667670624284</v>
       </c>
       <c r="D16">
-        <v>1.03271196632795</v>
+        <v>1.052329010069765</v>
       </c>
       <c r="E16">
-        <v>1.027300795102485</v>
+        <v>1.052861488683202</v>
       </c>
       <c r="F16">
-        <v>1.038506285101896</v>
+        <v>1.064321676762569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055674231058217</v>
+        <v>1.048496531469464</v>
       </c>
       <c r="J16">
-        <v>1.038846984078672</v>
+        <v>1.050925294449474</v>
       </c>
       <c r="K16">
-        <v>1.046479669646944</v>
+        <v>1.055709320800925</v>
       </c>
       <c r="L16">
-        <v>1.041158737399814</v>
+        <v>1.056239966973679</v>
       </c>
       <c r="M16">
-        <v>1.052178699897218</v>
+        <v>1.067661204885655</v>
       </c>
       <c r="N16">
-        <v>1.040322265953478</v>
+        <v>1.052417728910409</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012841159761309</v>
+        <v>1.044998626588356</v>
       </c>
       <c r="D17">
-        <v>1.033984280153635</v>
+        <v>1.052587094128919</v>
       </c>
       <c r="E17">
-        <v>1.028674736391256</v>
+        <v>1.053149818381235</v>
       </c>
       <c r="F17">
-        <v>1.039974903863288</v>
+        <v>1.064629486114503</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05628228810792</v>
+        <v>1.048591604334232</v>
       </c>
       <c r="J17">
-        <v>1.039814660473923</v>
+        <v>1.051120400807331</v>
       </c>
       <c r="K17">
-        <v>1.047421572303858</v>
+        <v>1.055896129300853</v>
       </c>
       <c r="L17">
-        <v>1.04219800383346</v>
+        <v>1.056456960892605</v>
       </c>
       <c r="M17">
-        <v>1.053316542318421</v>
+        <v>1.067898497090367</v>
       </c>
       <c r="N17">
-        <v>1.041291316560204</v>
+        <v>1.052613112341673</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01382425083613</v>
+        <v>1.0451917492423</v>
       </c>
       <c r="D18">
-        <v>1.03472175799602</v>
+        <v>1.052737699559064</v>
       </c>
       <c r="E18">
-        <v>1.029471388282874</v>
+        <v>1.053318111423947</v>
       </c>
       <c r="F18">
-        <v>1.040826383152176</v>
+        <v>1.064809143430883</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056633522771649</v>
+        <v>1.048646948474314</v>
       </c>
       <c r="J18">
-        <v>1.040374979036736</v>
+        <v>1.05123420339896</v>
       </c>
       <c r="K18">
-        <v>1.047966905706626</v>
+        <v>1.056005078733122</v>
       </c>
       <c r="L18">
-        <v>1.042800085210673</v>
+        <v>1.056583564829122</v>
       </c>
       <c r="M18">
-        <v>1.053975742578495</v>
+        <v>1.068036943984394</v>
       </c>
       <c r="N18">
-        <v>1.041852430839646</v>
+        <v>1.052727076546035</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014158318892201</v>
+        <v>1.045257612872285</v>
       </c>
       <c r="D19">
-        <v>1.034972440809687</v>
+        <v>1.052789063827775</v>
       </c>
       <c r="E19">
-        <v>1.029742231100959</v>
+        <v>1.05337551448485</v>
       </c>
       <c r="F19">
-        <v>1.041115854257094</v>
+        <v>1.064870421772018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056752707403954</v>
+        <v>1.048665800669254</v>
       </c>
       <c r="J19">
-        <v>1.040565343741041</v>
+        <v>1.051273007161147</v>
       </c>
       <c r="K19">
-        <v>1.048152168653542</v>
+        <v>1.056042225460405</v>
       </c>
       <c r="L19">
-        <v>1.04300469106352</v>
+        <v>1.056626739400025</v>
       </c>
       <c r="M19">
-        <v>1.054199760912811</v>
+        <v>1.068084157254639</v>
       </c>
       <c r="N19">
-        <v>1.042043065883666</v>
+        <v>1.052765935414015</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012659782613391</v>
+        <v>1.044963109688914</v>
       </c>
       <c r="D20">
-        <v>1.033848255186359</v>
+        <v>1.052559396963737</v>
       </c>
       <c r="E20">
-        <v>1.028527818645492</v>
+        <v>1.053118871402906</v>
       </c>
       <c r="F20">
-        <v>1.039817869308898</v>
+        <v>1.06459644893351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056217405874625</v>
+        <v>1.04858141531353</v>
       </c>
       <c r="J20">
-        <v>1.039711265012156</v>
+        <v>1.051099467695331</v>
       </c>
       <c r="K20">
-        <v>1.04732093703993</v>
+        <v>1.055876087831375</v>
       </c>
       <c r="L20">
-        <v>1.042086926902922</v>
+        <v>1.056433675862008</v>
       </c>
       <c r="M20">
-        <v>1.053194928461929</v>
+        <v>1.067873033902238</v>
       </c>
       <c r="N20">
-        <v>1.041187774265022</v>
+        <v>1.052592149502252</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.007706658908745</v>
+        <v>1.044006614728469</v>
       </c>
       <c r="D21">
-        <v>1.030138171486862</v>
+        <v>1.051813547225665</v>
       </c>
       <c r="E21">
-        <v>1.024523125480124</v>
+        <v>1.052285858355371</v>
       </c>
       <c r="F21">
-        <v>1.035536755007829</v>
+        <v>1.06370712033831</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054436317942652</v>
+        <v>1.048305776432991</v>
       </c>
       <c r="J21">
-        <v>1.036885664621332</v>
+        <v>1.050535281287602</v>
       </c>
       <c r="K21">
-        <v>1.044570211037786</v>
+        <v>1.055335810916985</v>
       </c>
       <c r="L21">
-        <v>1.039054331916867</v>
+        <v>1.055806423020165</v>
       </c>
       <c r="M21">
-        <v>1.04987476250856</v>
+        <v>1.067187106118392</v>
       </c>
       <c r="N21">
-        <v>1.038358161197542</v>
+        <v>1.052027161885111</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004527463140116</v>
+        <v>1.043405975593545</v>
       </c>
       <c r="D22">
-        <v>1.027761515591029</v>
+        <v>1.051345239566188</v>
       </c>
       <c r="E22">
-        <v>1.021960128816713</v>
+        <v>1.05176316120594</v>
       </c>
       <c r="F22">
-        <v>1.032796203498438</v>
+        <v>1.063149035201203</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053284285567531</v>
+        <v>1.048131483886528</v>
       </c>
       <c r="J22">
-        <v>1.035070219383991</v>
+        <v>1.050180567298524</v>
       </c>
       <c r="K22">
-        <v>1.04280236839468</v>
+        <v>1.054996011437185</v>
       </c>
       <c r="L22">
-        <v>1.037108752925161</v>
+        <v>1.055412370392735</v>
       </c>
       <c r="M22">
-        <v>1.047744804782505</v>
+        <v>1.066756193115514</v>
       </c>
       <c r="N22">
-        <v>1.03654013781973</v>
+        <v>1.051671944161483</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006219153499114</v>
+        <v>1.043724314367346</v>
       </c>
       <c r="D23">
-        <v>1.029025703129359</v>
+        <v>1.051593437254302</v>
       </c>
       <c r="E23">
-        <v>1.023323212945922</v>
+        <v>1.052040152566343</v>
       </c>
       <c r="F23">
-        <v>1.03425377838544</v>
+        <v>1.063444784488413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053898113782704</v>
+        <v>1.048223972978236</v>
       </c>
       <c r="J23">
-        <v>1.036036399036669</v>
+        <v>1.050368606273707</v>
       </c>
       <c r="K23">
-        <v>1.043743258518256</v>
+        <v>1.05517615515565</v>
       </c>
       <c r="L23">
-        <v>1.038143919676272</v>
+        <v>1.055621233732447</v>
       </c>
       <c r="M23">
-        <v>1.048878060658028</v>
+        <v>1.066984593858212</v>
       </c>
       <c r="N23">
-        <v>1.037507689558337</v>
+        <v>1.051860250173579</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.012741760158839</v>
+        <v>1.044979157994918</v>
       </c>
       <c r="D24">
-        <v>1.033909733334825</v>
+        <v>1.052571911906387</v>
       </c>
       <c r="E24">
-        <v>1.028594219089839</v>
+        <v>1.053132854654594</v>
       </c>
       <c r="F24">
-        <v>1.039888842326564</v>
+        <v>1.06461137665127</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05624673396444</v>
+        <v>1.048586019634171</v>
       </c>
       <c r="J24">
-        <v>1.039757997655066</v>
+        <v>1.051108926466662</v>
       </c>
       <c r="K24">
-        <v>1.047366422320184</v>
+        <v>1.055885143748495</v>
       </c>
       <c r="L24">
-        <v>1.042137130453434</v>
+        <v>1.056444197256919</v>
       </c>
       <c r="M24">
-        <v>1.053249894364787</v>
+        <v>1.067884539502571</v>
       </c>
       <c r="N24">
-        <v>1.041234573273646</v>
+        <v>1.052601621706123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020045172191524</v>
+        <v>1.046438530582853</v>
       </c>
       <c r="D25">
-        <v>1.039396274479577</v>
+        <v>1.053710091599884</v>
       </c>
       <c r="E25">
-        <v>1.034525841461623</v>
+        <v>1.054405386983533</v>
       </c>
       <c r="F25">
-        <v>1.04622746824463</v>
+        <v>1.065969737128236</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058837991935756</v>
+        <v>1.049001826545232</v>
       </c>
       <c r="J25">
-        <v>1.043916268219403</v>
+        <v>1.051968035888574</v>
       </c>
       <c r="K25">
-        <v>1.051412316952987</v>
+        <v>1.056707378268772</v>
       </c>
       <c r="L25">
-        <v>1.046610828542531</v>
+        <v>1.05740057032189</v>
       </c>
       <c r="M25">
-        <v>1.058148174148177</v>
+        <v>1.068930375351783</v>
       </c>
       <c r="N25">
-        <v>1.045398749059144</v>
+        <v>1.053461951161956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047605037959895</v>
+        <v>1.025673428090249</v>
       </c>
       <c r="D2">
-        <v>1.054620021756721</v>
+        <v>1.043636809560454</v>
       </c>
       <c r="E2">
-        <v>1.055423923710415</v>
+        <v>1.039119016414677</v>
       </c>
       <c r="F2">
-        <v>1.067056793130225</v>
+        <v>1.05113370765163</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049329951504624</v>
+        <v>1.06080260967734</v>
       </c>
       <c r="J2">
-        <v>1.052653217580459</v>
+        <v>1.047112458871386</v>
       </c>
       <c r="K2">
-        <v>1.05736273107179</v>
+        <v>1.054519931616191</v>
       </c>
       <c r="L2">
-        <v>1.058164420647572</v>
+        <v>1.050058990523601</v>
       </c>
       <c r="M2">
-        <v>1.069765679598073</v>
+        <v>1.061923830384736</v>
       </c>
       <c r="N2">
-        <v>1.054148105890435</v>
+        <v>1.048599478668461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048453455319179</v>
+        <v>1.029653751824216</v>
       </c>
       <c r="D3">
-        <v>1.055281909053358</v>
+        <v>1.04664205030812</v>
       </c>
       <c r="E3">
-        <v>1.056165507218695</v>
+        <v>1.042379333712698</v>
       </c>
       <c r="F3">
-        <v>1.067848162409601</v>
+        <v>1.054615051407566</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049566141559956</v>
+        <v>1.062172606701286</v>
       </c>
       <c r="J3">
-        <v>1.053150672347866</v>
+        <v>1.049367419849061</v>
       </c>
       <c r="K3">
-        <v>1.057838284587375</v>
+        <v>1.056710991707827</v>
       </c>
       <c r="L3">
-        <v>1.058719625999357</v>
+        <v>1.052497225047452</v>
       </c>
       <c r="M3">
-        <v>1.070372821304469</v>
+        <v>1.064593744941969</v>
       </c>
       <c r="N3">
-        <v>1.05464626710067</v>
+        <v>1.050857641949372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049003089843431</v>
+        <v>1.032182538597176</v>
       </c>
       <c r="D4">
-        <v>1.055710737526487</v>
+        <v>1.048553999064983</v>
       </c>
       <c r="E4">
-        <v>1.056646291962639</v>
+        <v>1.044456007180351</v>
       </c>
       <c r="F4">
-        <v>1.068361177332577</v>
+        <v>1.056831964284651</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049718015016554</v>
+        <v>1.063033795000808</v>
       </c>
       <c r="J4">
-        <v>1.053472528810654</v>
+        <v>1.05079736133475</v>
       </c>
       <c r="K4">
-        <v>1.058145856886312</v>
+        <v>1.058099715586956</v>
       </c>
       <c r="L4">
-        <v>1.059079141626038</v>
+        <v>1.054045935700153</v>
       </c>
       <c r="M4">
-        <v>1.070765967523251</v>
+        <v>1.066289651484607</v>
       </c>
       <c r="N4">
-        <v>1.054968580636554</v>
+        <v>1.052289614115988</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049234310538335</v>
+        <v>1.033234791058343</v>
       </c>
       <c r="D5">
-        <v>1.055891145229193</v>
+        <v>1.049350177213745</v>
       </c>
       <c r="E5">
-        <v>1.056848634776689</v>
+        <v>1.045321374728294</v>
       </c>
       <c r="F5">
-        <v>1.068577073310085</v>
+        <v>1.057755641291704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049781632586371</v>
+        <v>1.063389902720702</v>
       </c>
       <c r="J5">
-        <v>1.053607828753695</v>
+        <v>1.051391702502045</v>
       </c>
       <c r="K5">
-        <v>1.058275124783592</v>
+        <v>1.058676751600797</v>
       </c>
       <c r="L5">
-        <v>1.059230342918948</v>
+        <v>1.054690254724163</v>
       </c>
       <c r="M5">
-        <v>1.070931312783512</v>
+        <v>1.066995216905615</v>
       </c>
       <c r="N5">
-        <v>1.055104072721033</v>
+        <v>1.052884799315911</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049273142511926</v>
+        <v>1.033410842339206</v>
       </c>
       <c r="D6">
-        <v>1.055921443941963</v>
+        <v>1.049483419000405</v>
       </c>
       <c r="E6">
-        <v>1.056882621924788</v>
+        <v>1.04546623064424</v>
       </c>
       <c r="F6">
-        <v>1.06861333630183</v>
+        <v>1.057910250187518</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049792300742414</v>
+        <v>1.063449350056473</v>
       </c>
       <c r="J6">
-        <v>1.05363054567175</v>
+        <v>1.051491100883853</v>
       </c>
       <c r="K6">
-        <v>1.058296827311455</v>
+        <v>1.058773245463386</v>
       </c>
       <c r="L6">
-        <v>1.059255733811063</v>
+        <v>1.054798047510516</v>
       </c>
       <c r="M6">
-        <v>1.070959078837886</v>
+        <v>1.067113256451701</v>
       </c>
       <c r="N6">
-        <v>1.055126821899717</v>
+        <v>1.052984338854823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049006178821335</v>
+        <v>1.032196641033655</v>
       </c>
       <c r="D7">
-        <v>1.055713147641536</v>
+        <v>1.04856466724682</v>
       </c>
       <c r="E7">
-        <v>1.05664899481158</v>
+        <v>1.04446760009096</v>
       </c>
       <c r="F7">
-        <v>1.06836406126555</v>
+        <v>1.056844338848443</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049718865982564</v>
+        <v>1.063038576498886</v>
       </c>
       <c r="J7">
-        <v>1.053474336730229</v>
+        <v>1.050805329464767</v>
       </c>
       <c r="K7">
-        <v>1.05814758431146</v>
+        <v>1.05810745240632</v>
       </c>
       <c r="L7">
-        <v>1.059081161747579</v>
+        <v>1.054054571444985</v>
       </c>
       <c r="M7">
-        <v>1.0707681766151</v>
+        <v>1.066299108080637</v>
       </c>
       <c r="N7">
-        <v>1.054970391123582</v>
+        <v>1.052297593561662</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047891628609269</v>
+        <v>1.027028487563569</v>
       </c>
       <c r="D8">
-        <v>1.054843596117842</v>
+        <v>1.044659332677523</v>
       </c>
       <c r="E8">
-        <v>1.055674351503391</v>
+        <v>1.040227822194207</v>
       </c>
       <c r="F8">
-        <v>1.067324042994726</v>
+        <v>1.052317797076521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049409970743357</v>
+        <v>1.061270916633463</v>
       </c>
       <c r="J8">
-        <v>1.052821340171554</v>
+        <v>1.04788068205179</v>
       </c>
       <c r="K8">
-        <v>1.057523475327247</v>
+        <v>1.055266526906749</v>
       </c>
       <c r="L8">
-        <v>1.058352000042691</v>
+        <v>1.05088911751345</v>
       </c>
       <c r="M8">
-        <v>1.069970806005905</v>
+        <v>1.062832826799543</v>
       </c>
       <c r="N8">
-        <v>1.054316467234893</v>
+        <v>1.049368792813898</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045932715347003</v>
+        <v>1.017547371098616</v>
       </c>
       <c r="D9">
-        <v>1.053315575179142</v>
+        <v>1.037517772073689</v>
       </c>
       <c r="E9">
-        <v>1.053964116325521</v>
+        <v>1.032493614089244</v>
       </c>
       <c r="F9">
-        <v>1.06549873176675</v>
+        <v>1.044056131107648</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048858363755912</v>
+        <v>1.057956760052761</v>
       </c>
       <c r="J9">
-        <v>1.05167050529167</v>
+        <v>1.042495347895162</v>
       </c>
       <c r="K9">
-        <v>1.056422683024865</v>
+        <v>1.050030124592977</v>
       </c>
       <c r="L9">
-        <v>1.057069185307022</v>
+        <v>1.045080619715322</v>
       </c>
       <c r="M9">
-        <v>1.068567991215311</v>
+        <v>1.056472695796805</v>
       </c>
       <c r="N9">
-        <v>1.053163998037478</v>
+        <v>1.043975810865061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044630280501516</v>
+        <v>1.010951308538558</v>
       </c>
       <c r="D10">
-        <v>1.052299853516218</v>
+        <v>1.032567547531842</v>
       </c>
       <c r="E10">
-        <v>1.052828920286111</v>
+        <v>1.027144876841851</v>
       </c>
       <c r="F10">
-        <v>1.064286907266578</v>
+        <v>1.038339613131271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048485772422544</v>
+        <v>1.055605045934821</v>
       </c>
       <c r="J10">
-        <v>1.050903245632558</v>
+        <v>1.038737065091325</v>
       </c>
       <c r="K10">
-        <v>1.055688207941997</v>
+        <v>1.046372670163673</v>
       </c>
       <c r="L10">
-        <v>1.056215449350748</v>
+        <v>1.041040728673801</v>
       </c>
       <c r="M10">
-        <v>1.067634393812666</v>
+        <v>1.052049499358198</v>
       </c>
       <c r="N10">
-        <v>1.052395648781643</v>
+        <v>1.040212190868561</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044067164935121</v>
+        <v>1.008024173238417</v>
       </c>
       <c r="D11">
-        <v>1.051860759536423</v>
+        <v>1.030375736979851</v>
       </c>
       <c r="E11">
-        <v>1.05233856829752</v>
+        <v>1.024779416264008</v>
       </c>
       <c r="F11">
-        <v>1.063763396705775</v>
+        <v>1.035810773381309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048323295811278</v>
+        <v>1.054551008709955</v>
       </c>
       <c r="J11">
-        <v>1.050571021735996</v>
+        <v>1.037066905701394</v>
       </c>
       <c r="K11">
-        <v>1.055370043619179</v>
+        <v>1.044746679615878</v>
       </c>
       <c r="L11">
-        <v>1.055846140406962</v>
+        <v>1.039248684737771</v>
       </c>
       <c r="M11">
-        <v>1.067230538757094</v>
+        <v>1.050087538830231</v>
       </c>
       <c r="N11">
-        <v>1.052062953089042</v>
+        <v>1.038539659660726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043858127742896</v>
+        <v>1.006925723384474</v>
       </c>
       <c r="D12">
-        <v>1.051697770538872</v>
+        <v>1.029554028487563</v>
       </c>
       <c r="E12">
-        <v>1.05215661126317</v>
+        <v>1.023893017232029</v>
       </c>
       <c r="F12">
-        <v>1.06356912652011</v>
+        <v>1.034863041022744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048262774021272</v>
+        <v>1.054153945019178</v>
       </c>
       <c r="J12">
-        <v>1.050447621016955</v>
+        <v>1.036439839091684</v>
       </c>
       <c r="K12">
-        <v>1.055251844795637</v>
+        <v>1.044136108971633</v>
       </c>
       <c r="L12">
-        <v>1.055709018861907</v>
+        <v>1.038576347332928</v>
       </c>
       <c r="M12">
-        <v>1.067080590573692</v>
+        <v>1.049351471652881</v>
       </c>
       <c r="N12">
-        <v>1.051939377126825</v>
+        <v>1.037911702544505</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043902961065254</v>
+        <v>1.007161859200409</v>
       </c>
       <c r="D13">
-        <v>1.051732727222048</v>
+        <v>1.029730635610657</v>
       </c>
       <c r="E13">
-        <v>1.052195633419194</v>
+        <v>1.024083509676936</v>
       </c>
       <c r="F13">
-        <v>1.063610789732493</v>
+        <v>1.035066719401837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04827576386352</v>
+        <v>1.054239370552859</v>
       </c>
       <c r="J13">
-        <v>1.050474090776816</v>
+        <v>1.036574654399698</v>
       </c>
       <c r="K13">
-        <v>1.055277199656448</v>
+        <v>1.044267381559512</v>
       </c>
       <c r="L13">
-        <v>1.05573842932974</v>
+        <v>1.03872087335439</v>
       </c>
       <c r="M13">
-        <v>1.067112752155514</v>
+        <v>1.049509696144984</v>
       </c>
       <c r="N13">
-        <v>1.051965884476782</v>
+        <v>1.03804670930572</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044049883214148</v>
+        <v>1.007933606215458</v>
       </c>
       <c r="D14">
-        <v>1.051847284559188</v>
+        <v>1.030307970637097</v>
       </c>
       <c r="E14">
-        <v>1.052323523958025</v>
+        <v>1.024706306591154</v>
       </c>
       <c r="F14">
-        <v>1.063747334487</v>
+        <v>1.035732607236376</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048318296539427</v>
+        <v>1.05451830153925</v>
       </c>
       <c r="J14">
-        <v>1.05056082134495</v>
+        <v>1.037015210343731</v>
       </c>
       <c r="K14">
-        <v>1.055360273635561</v>
+        <v>1.044696345911051</v>
       </c>
       <c r="L14">
-        <v>1.055834804741323</v>
+        <v>1.039193247262217</v>
       </c>
       <c r="M14">
-        <v>1.067218142727992</v>
+        <v>1.050026846117539</v>
       </c>
       <c r="N14">
-        <v>1.05205273821227</v>
+        <v>1.038487890889727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044140423944094</v>
+        <v>1.008407607447775</v>
       </c>
       <c r="D15">
-        <v>1.05191788175456</v>
+        <v>1.030662672770668</v>
       </c>
       <c r="E15">
-        <v>1.05240234565183</v>
+        <v>1.025088993447272</v>
       </c>
       <c r="F15">
-        <v>1.063831488784879</v>
+        <v>1.036141757264186</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048344479725137</v>
+        <v>1.054689419509377</v>
       </c>
       <c r="J15">
-        <v>1.050614259219242</v>
+        <v>1.037285756054185</v>
       </c>
       <c r="K15">
-        <v>1.05541145585495</v>
+        <v>1.044959761951878</v>
       </c>
       <c r="L15">
-        <v>1.05589419231039</v>
+        <v>1.039483397241923</v>
       </c>
       <c r="M15">
-        <v>1.06728308554555</v>
+        <v>1.050344501887884</v>
       </c>
       <c r="N15">
-        <v>1.052106251974474</v>
+        <v>1.038758820806121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044667670624284</v>
+        <v>1.011144033779246</v>
       </c>
       <c r="D16">
-        <v>1.052329010069765</v>
+        <v>1.032711966327951</v>
       </c>
       <c r="E16">
-        <v>1.052861488683202</v>
+        <v>1.027300795102485</v>
       </c>
       <c r="F16">
-        <v>1.064321676762569</v>
+        <v>1.038506285101896</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048496531469464</v>
+        <v>1.055674231058217</v>
       </c>
       <c r="J16">
-        <v>1.050925294449474</v>
+        <v>1.038846984078672</v>
       </c>
       <c r="K16">
-        <v>1.055709320800925</v>
+        <v>1.046479669646944</v>
       </c>
       <c r="L16">
-        <v>1.056239966973679</v>
+        <v>1.041158737399814</v>
       </c>
       <c r="M16">
-        <v>1.067661204885655</v>
+        <v>1.052178699897219</v>
       </c>
       <c r="N16">
-        <v>1.052417728910409</v>
+        <v>1.040322265953478</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044998626588356</v>
+        <v>1.012841159761308</v>
       </c>
       <c r="D17">
-        <v>1.052587094128919</v>
+        <v>1.033984280153634</v>
       </c>
       <c r="E17">
-        <v>1.053149818381235</v>
+        <v>1.028674736391255</v>
       </c>
       <c r="F17">
-        <v>1.064629486114503</v>
+        <v>1.039974903863287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048591604334232</v>
+        <v>1.056282288107919</v>
       </c>
       <c r="J17">
-        <v>1.051120400807331</v>
+        <v>1.039814660473922</v>
       </c>
       <c r="K17">
-        <v>1.055896129300853</v>
+        <v>1.047421572303856</v>
       </c>
       <c r="L17">
-        <v>1.056456960892605</v>
+        <v>1.042198003833458</v>
       </c>
       <c r="M17">
-        <v>1.067898497090367</v>
+        <v>1.05331654231842</v>
       </c>
       <c r="N17">
-        <v>1.052613112341673</v>
+        <v>1.041291316560203</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0451917492423</v>
+        <v>1.01382425083613</v>
       </c>
       <c r="D18">
-        <v>1.052737699559064</v>
+        <v>1.034721757996021</v>
       </c>
       <c r="E18">
-        <v>1.053318111423947</v>
+        <v>1.029471388282874</v>
       </c>
       <c r="F18">
-        <v>1.064809143430883</v>
+        <v>1.040826383152177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048646948474314</v>
+        <v>1.056633522771649</v>
       </c>
       <c r="J18">
-        <v>1.05123420339896</v>
+        <v>1.040374979036736</v>
       </c>
       <c r="K18">
-        <v>1.056005078733122</v>
+        <v>1.047966905706627</v>
       </c>
       <c r="L18">
-        <v>1.056583564829122</v>
+        <v>1.042800085210674</v>
       </c>
       <c r="M18">
-        <v>1.068036943984394</v>
+        <v>1.053975742578496</v>
       </c>
       <c r="N18">
-        <v>1.052727076546035</v>
+        <v>1.041852430839646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045257612872285</v>
+        <v>1.0141583188922</v>
       </c>
       <c r="D19">
-        <v>1.052789063827775</v>
+        <v>1.034972440809685</v>
       </c>
       <c r="E19">
-        <v>1.05337551448485</v>
+        <v>1.029742231100957</v>
       </c>
       <c r="F19">
-        <v>1.064870421772018</v>
+        <v>1.041115854257093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048665800669254</v>
+        <v>1.056752707403953</v>
       </c>
       <c r="J19">
-        <v>1.051273007161147</v>
+        <v>1.04056534374104</v>
       </c>
       <c r="K19">
-        <v>1.056042225460405</v>
+        <v>1.04815216865354</v>
       </c>
       <c r="L19">
-        <v>1.056626739400025</v>
+        <v>1.043004691063518</v>
       </c>
       <c r="M19">
-        <v>1.068084157254639</v>
+        <v>1.05419976091281</v>
       </c>
       <c r="N19">
-        <v>1.052765935414015</v>
+        <v>1.042043065883665</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044963109688914</v>
+        <v>1.012659782613391</v>
       </c>
       <c r="D20">
-        <v>1.052559396963737</v>
+        <v>1.033848255186358</v>
       </c>
       <c r="E20">
-        <v>1.053118871402906</v>
+        <v>1.028527818645491</v>
       </c>
       <c r="F20">
-        <v>1.06459644893351</v>
+        <v>1.039817869308897</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04858141531353</v>
+        <v>1.056217405874624</v>
       </c>
       <c r="J20">
-        <v>1.051099467695331</v>
+        <v>1.039711265012155</v>
       </c>
       <c r="K20">
-        <v>1.055876087831375</v>
+        <v>1.047320937039929</v>
       </c>
       <c r="L20">
-        <v>1.056433675862008</v>
+        <v>1.042086926902921</v>
       </c>
       <c r="M20">
-        <v>1.067873033902238</v>
+        <v>1.053194928461928</v>
       </c>
       <c r="N20">
-        <v>1.052592149502252</v>
+        <v>1.041187774265022</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044006614728469</v>
+        <v>1.007706658908744</v>
       </c>
       <c r="D21">
-        <v>1.051813547225665</v>
+        <v>1.030138171486861</v>
       </c>
       <c r="E21">
-        <v>1.052285858355371</v>
+        <v>1.024523125480123</v>
       </c>
       <c r="F21">
-        <v>1.06370712033831</v>
+        <v>1.035536755007828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048305776432991</v>
+        <v>1.054436317942652</v>
       </c>
       <c r="J21">
-        <v>1.050535281287602</v>
+        <v>1.03688566462133</v>
       </c>
       <c r="K21">
-        <v>1.055335810916985</v>
+        <v>1.044570211037784</v>
       </c>
       <c r="L21">
-        <v>1.055806423020165</v>
+        <v>1.039054331916865</v>
       </c>
       <c r="M21">
-        <v>1.067187106118392</v>
+        <v>1.049874762508558</v>
       </c>
       <c r="N21">
-        <v>1.052027161885111</v>
+        <v>1.038358161197541</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043405975593545</v>
+        <v>1.004527463140116</v>
       </c>
       <c r="D22">
-        <v>1.051345239566188</v>
+        <v>1.027761515591028</v>
       </c>
       <c r="E22">
-        <v>1.05176316120594</v>
+        <v>1.021960128816713</v>
       </c>
       <c r="F22">
-        <v>1.063149035201203</v>
+        <v>1.032796203498437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048131483886528</v>
+        <v>1.05328428556753</v>
       </c>
       <c r="J22">
-        <v>1.050180567298524</v>
+        <v>1.035070219383991</v>
       </c>
       <c r="K22">
-        <v>1.054996011437185</v>
+        <v>1.042802368394679</v>
       </c>
       <c r="L22">
-        <v>1.055412370392735</v>
+        <v>1.037108752925161</v>
       </c>
       <c r="M22">
-        <v>1.066756193115514</v>
+        <v>1.047744804782504</v>
       </c>
       <c r="N22">
-        <v>1.051671944161483</v>
+        <v>1.036540137819729</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043724314367346</v>
+        <v>1.006219153499114</v>
       </c>
       <c r="D23">
-        <v>1.051593437254302</v>
+        <v>1.029025703129359</v>
       </c>
       <c r="E23">
-        <v>1.052040152566343</v>
+        <v>1.023323212945921</v>
       </c>
       <c r="F23">
-        <v>1.063444784488413</v>
+        <v>1.034253778385439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048223972978236</v>
+        <v>1.053898113782704</v>
       </c>
       <c r="J23">
-        <v>1.050368606273707</v>
+        <v>1.036036399036669</v>
       </c>
       <c r="K23">
-        <v>1.05517615515565</v>
+        <v>1.043743258518256</v>
       </c>
       <c r="L23">
-        <v>1.055621233732447</v>
+        <v>1.038143919676271</v>
       </c>
       <c r="M23">
-        <v>1.066984593858212</v>
+        <v>1.048878060658027</v>
       </c>
       <c r="N23">
-        <v>1.051860250173579</v>
+        <v>1.037507689558337</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044979157994918</v>
+        <v>1.012741760158839</v>
       </c>
       <c r="D24">
-        <v>1.052571911906387</v>
+        <v>1.033909733334825</v>
       </c>
       <c r="E24">
-        <v>1.053132854654594</v>
+        <v>1.028594219089839</v>
       </c>
       <c r="F24">
-        <v>1.06461137665127</v>
+        <v>1.039888842326564</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048586019634171</v>
+        <v>1.05624673396444</v>
       </c>
       <c r="J24">
-        <v>1.051108926466662</v>
+        <v>1.039757997655066</v>
       </c>
       <c r="K24">
-        <v>1.055885143748495</v>
+        <v>1.047366422320184</v>
       </c>
       <c r="L24">
-        <v>1.056444197256919</v>
+        <v>1.042137130453434</v>
       </c>
       <c r="M24">
-        <v>1.067884539502571</v>
+        <v>1.053249894364786</v>
       </c>
       <c r="N24">
-        <v>1.052601621706123</v>
+        <v>1.041234573273646</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046438530582853</v>
+        <v>1.020045172191523</v>
       </c>
       <c r="D25">
-        <v>1.053710091599884</v>
+        <v>1.039396274479577</v>
       </c>
       <c r="E25">
-        <v>1.054405386983533</v>
+        <v>1.034525841461623</v>
       </c>
       <c r="F25">
-        <v>1.065969737128236</v>
+        <v>1.04622746824463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049001826545232</v>
+        <v>1.058837991935755</v>
       </c>
       <c r="J25">
-        <v>1.051968035888574</v>
+        <v>1.043916268219403</v>
       </c>
       <c r="K25">
-        <v>1.056707378268772</v>
+        <v>1.051412316952987</v>
       </c>
       <c r="L25">
-        <v>1.05740057032189</v>
+        <v>1.046610828542531</v>
       </c>
       <c r="M25">
-        <v>1.068930375351783</v>
+        <v>1.058148174148177</v>
       </c>
       <c r="N25">
-        <v>1.053461951161956</v>
+        <v>1.045398749059144</v>
       </c>
     </row>
   </sheetData>
